--- a/data/trans_camb/P29A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P29A-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.669931367860414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-13.25447070234291</v>
+        <v>-13.25447070234292</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.643755908364215</v>
@@ -664,7 +664,7 @@
         <v>4.72693478734011</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.209388408358205</v>
+        <v>-9.20938840835821</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.206264330271587</v>
+        <v>-2.14299810984936</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.068419603950167</v>
+        <v>-2.217192701802178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-22.2805718031566</v>
+        <v>-22.24080834971177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.784724623437391</v>
+        <v>-3.851674084522828</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.166237797183457</v>
+        <v>-1.735006683838811</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.8652944492098</v>
+        <v>-12.82400380020121</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.692349420354164</v>
+        <v>-1.496925279778485</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03184926682065459</v>
+        <v>0.1276957089342954</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.3346861453706</v>
+        <v>-15.31772803569868</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.45672503485914</v>
+        <v>10.77599135516675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.06952068748667</v>
+        <v>11.06894832654233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.612304812026672</v>
+        <v>-3.816675528560082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.889826872487101</v>
+        <v>8.752073025937658</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.82366608709592</v>
+        <v>11.50753647407109</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.194110750276963</v>
+        <v>2.771322793429809</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.897348304018154</v>
+        <v>7.722041158152098</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.45676863736308</v>
+        <v>9.3969747276861</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.420201446668331</v>
+        <v>-3.470610309032732</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.08644664925762155</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2453579056400187</v>
+        <v>-0.2453579056400189</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07262243312595537</v>
@@ -769,7 +769,7 @@
         <v>0.1040266657868918</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.202672982209057</v>
+        <v>-0.2026729822090571</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03855787276631808</v>
+        <v>-0.03759015015243745</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.0367114120485186</v>
+        <v>-0.0390075370809672</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3986595645769536</v>
+        <v>-0.3935980059177754</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.09213251414074791</v>
+        <v>-0.09505971003773822</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03152996317194681</v>
+        <v>-0.04286572236423774</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.333685779923443</v>
+        <v>-0.3321821970648224</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03521461092215639</v>
+        <v>-0.03207939775219012</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0001267516372577622</v>
+        <v>0.001742186525572828</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3232897656114018</v>
+        <v>-0.3260855902690087</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2275366229580603</v>
+        <v>0.2114075206298798</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2186866602985263</v>
+        <v>0.2189791980113639</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0868717485794471</v>
+        <v>-0.07158735726665226</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2717214632311061</v>
+        <v>0.2728720754415125</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3494194731953308</v>
+        <v>0.3442729387825211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07609339163159284</v>
+        <v>0.08749876938293241</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1806843023561384</v>
+        <v>0.1771015871747718</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2162318415199773</v>
+        <v>0.2193482500046527</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.07759311739362088</v>
+        <v>-0.07817058793607164</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.247339208223605</v>
+        <v>-7.161074762023767</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.25761831457446</v>
+        <v>-11.8685908439992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.92692770621969</v>
+        <v>-20.3256915673509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.644010149527802</v>
+        <v>-8.094161803717327</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7655857449226624</v>
+        <v>0.8799078740376307</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.672763963353598</v>
+        <v>-7.968852706485066</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.695027226503196</v>
+        <v>-6.945021107372919</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.990285482916274</v>
+        <v>-4.703657138972574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-13.66682050022697</v>
+        <v>-13.77184506361529</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.198574363716943</v>
+        <v>3.429297744061521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.7037594447959463</v>
+        <v>-0.2818249146124089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.678161583292463</v>
+        <v>-6.554579139071327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.549844976733572</v>
+        <v>3.155979760359498</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.46737363338312</v>
+        <v>12.0577653002254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.075266575148839</v>
+        <v>3.541376179185223</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.348935200037647</v>
+        <v>1.482696060763255</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.445626773453934</v>
+        <v>3.447404240394783</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.506819809995974</v>
+        <v>-4.782278336943418</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.105623016826926</v>
+        <v>-0.1047613024166805</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1660099966750596</v>
+        <v>-0.1750295234001918</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.300526161291106</v>
+        <v>-0.3024839913642546</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2132630848465114</v>
+        <v>-0.2277768143939665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01932239265103057</v>
+        <v>0.02101473588332041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2190006885675535</v>
+        <v>-0.2278771007285389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1291215522119929</v>
+        <v>-0.1326600409869206</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09557801012222504</v>
+        <v>-0.09132088563996879</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2629521523801855</v>
+        <v>-0.2661473486915853</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05070354253924611</v>
+        <v>0.05453684382474837</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.008908745001327965</v>
+        <v>-0.004851892595472355</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1050016575494325</v>
+        <v>-0.100982603891958</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1216423283266967</v>
+        <v>0.1040644907167225</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4076869432920598</v>
+        <v>0.4000563663422767</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1336427831966212</v>
+        <v>0.11471673481052</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02824543131214533</v>
+        <v>0.03092800939857963</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06999163843971305</v>
+        <v>0.07058687789199936</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.09161561850830774</v>
+        <v>-0.09685754681415687</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.121030156644344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.445702220680641</v>
+        <v>-9.445702220680651</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.179611702313155</v>
@@ -1083,7 +1083,7 @@
         <v>5.634285857505683</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.86534918947639</v>
+        <v>-2.865349189476385</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.5551220287949798</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.642105776968878</v>
+        <v>-5.324542907421252</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.795452505835765</v>
+        <v>-2.482745311688058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.89637433168578</v>
+        <v>-15.07397075057567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.265771396785722</v>
+        <v>-6.386411692163254</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06300958621348667</v>
+        <v>0.6022525833025874</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.599426412189593</v>
+        <v>-8.124954166302285</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.611333566826159</v>
+        <v>-4.076378297612209</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.16447386017918</v>
+        <v>1.556105732348577</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.218216921686928</v>
+        <v>-9.76759733321056</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.728521865911552</v>
+        <v>5.429966939986635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.201383827284108</v>
+        <v>8.708050326520421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.445954693348532</v>
+        <v>-3.110410230305723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.852479350869362</v>
+        <v>3.782301069132671</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.72350356328383</v>
+        <v>10.51695233958966</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.958908172925504</v>
+        <v>1.849328565504018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.539063444915183</v>
+        <v>3.21031811346011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.018947820839744</v>
+        <v>9.161236833024786</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.71902172497488</v>
+        <v>-1.810830416592903</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.0520844834664505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1576320946770391</v>
+        <v>-0.1576320946770393</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.03899328615851655</v>
@@ -1188,7 +1188,7 @@
         <v>0.1862471526094421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.09471708416441706</v>
+        <v>-0.09471708416441688</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.01247093805085187</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09036063848008818</v>
+        <v>-0.08550640013753089</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04528777394906685</v>
+        <v>-0.03828516466268946</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2386750501354649</v>
+        <v>-0.2405123761015927</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.191927350525563</v>
+        <v>-0.1968184898564691</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005345288533511211</v>
+        <v>0.02054870933104409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.227395807779949</v>
+        <v>-0.2411253577666456</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09868589301350596</v>
+        <v>-0.08945947633946678</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02480724653652188</v>
+        <v>0.03379198399051748</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1992847771964801</v>
+        <v>-0.2093174190864229</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1004794538187519</v>
+        <v>0.09586480444025522</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.16235984296865</v>
+        <v>0.1579461756544119</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.06069251711875032</v>
+        <v>-0.05534304371400766</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1450116031962197</v>
+        <v>0.1342862993702086</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.391130020596394</v>
+        <v>0.3805788852996586</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07017261688024366</v>
+        <v>0.06726260680406786</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08292662247430872</v>
+        <v>0.07546012880587516</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2101175754554541</v>
+        <v>0.2174772275773389</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.03678584231527982</v>
+        <v>-0.04307913136485671</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.601593676684055</v>
+        <v>-3.430519347204365</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.779026573235947</v>
+        <v>-5.177501048123378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.84887041628878</v>
+        <v>-13.15140138711416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3769007255706799</v>
+        <v>-0.08176332965535735</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.450698833801477</v>
+        <v>7.099152026018064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.514773536380286</v>
+        <v>-1.551404837277728</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4976409966803788</v>
+        <v>-0.8054208342562488</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.207641247571432</v>
+        <v>2.178870995214779</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.403800298752885</v>
+        <v>-6.557959848767396</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.710433668304637</v>
+        <v>8.383934190155626</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.191987610115746</v>
+        <v>6.896384212913409</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.190458053889875</v>
+        <v>-1.356697332100749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.09518532782312</v>
+        <v>11.52493825752346</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.97200592748802</v>
+        <v>18.15728719956759</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.599037551811903</v>
+        <v>7.978256785445247</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.74612780505028</v>
+        <v>8.140795620955963</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.0592131618866</v>
+        <v>10.69522000761085</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.329089333183771</v>
+        <v>1.716337178114878</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05976581090481988</v>
+        <v>-0.05826009874356591</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09345896567556577</v>
+        <v>-0.08510061056548604</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2098968375489552</v>
+        <v>-0.2125582245229183</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01087750588395756</v>
+        <v>-0.002667762098979775</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2536043398972691</v>
+        <v>0.2483425709482671</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05169951882244864</v>
+        <v>-0.05453805244831041</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01102120241377823</v>
+        <v>-0.01770294339545217</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05021670659439467</v>
+        <v>0.05104839840500855</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1445566212194863</v>
+        <v>-0.1462473606954295</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1565532569099189</v>
+        <v>0.1549878334511361</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1133246888657568</v>
+        <v>0.1249015610180215</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02418719696931771</v>
+        <v>-0.02291779122061943</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4964953193173384</v>
+        <v>0.4936330379111468</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.845896325986454</v>
+        <v>0.7969282333444648</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3469181480186183</v>
+        <v>0.3534984183881414</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1989745628474757</v>
+        <v>0.2038078228577882</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2761587485345862</v>
+        <v>0.2736434015487573</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.03238639422237645</v>
+        <v>0.04208881837572313</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>13.71178990362757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.026300134218434</v>
+        <v>2.026300134218428</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.37571212795074</v>
@@ -1520,7 +1520,7 @@
         <v>10.55344048113641</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.957190667399669</v>
+        <v>4.957190667399675</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.922936449627215</v>
+        <v>-0.8722114684163053</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.597197403440033</v>
+        <v>6.33040454990773</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.226138903914827</v>
+        <v>-4.303705934822743</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.409749553477999</v>
+        <v>-1.36169972164477</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.387835941159071</v>
+        <v>2.298346433453368</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.182578125868885</v>
+        <v>2.233311709719404</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7110492570866428</v>
+        <v>0.4712068888572987</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.132566583311957</v>
+        <v>5.184103727980006</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.097355361937695</v>
+        <v>0.9556677113526511</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.22257834789022</v>
+        <v>13.24353402503326</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>20.12779404521226</v>
+        <v>20.65557541205707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.452249389869056</v>
+        <v>8.213488444823573</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.473819719685489</v>
+        <v>10.01425119946327</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.49348614207955</v>
+        <v>13.25692472632506</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.2389208131269</v>
+        <v>11.31168491752659</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.836156770079704</v>
+        <v>9.794706286768907</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.4071306357071</v>
+        <v>14.8661075616893</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.9418563281729</v>
+        <v>8.854817183551798</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3095141421701608</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.04573936387808696</v>
+        <v>0.04573936387808684</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2537527423821228</v>
@@ -1625,7 +1625,7 @@
         <v>0.3472742643764274</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.163122608733331</v>
+        <v>0.1631226087333312</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01833349787269711</v>
+        <v>-0.02040285696799702</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1375507386701142</v>
+        <v>0.1338147548433533</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08694692947419745</v>
+        <v>-0.08691193954715511</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.07233865359301916</v>
+        <v>-0.07419775413368195</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1172442409671122</v>
+        <v>0.1182816630557244</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1001515895699387</v>
+        <v>0.1033409461304123</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01939239334040561</v>
+        <v>0.01444620175655996</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.189936816924987</v>
+        <v>0.1500473135410839</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.03275525107376619</v>
+        <v>0.0285883194350975</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3330295149345273</v>
+        <v>0.3243215964366444</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5018057922689441</v>
+        <v>0.5126320757262857</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2127953515794364</v>
+        <v>0.2022482117027581</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6326868661627224</v>
+        <v>0.6911476890953383</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9295617776129609</v>
+        <v>0.8928923647964997</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7932330634136943</v>
+        <v>0.812154723419532</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3496590772138504</v>
+        <v>0.350454358288647</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5415306763272714</v>
+        <v>0.5218117849234576</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3213966637977376</v>
+        <v>0.3259783281654047</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.939239473346361</v>
+        <v>-3.17338505336951</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6605718021655522</v>
+        <v>0.176441687366095</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.372663887992045</v>
+        <v>1.778282153733823</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.09472167138513712</v>
+        <v>0.2285768195555652</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>4.397573275107017</v>
+        <v>4.867198423719931</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.630368696673219</v>
+        <v>6.153606847520261</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3805844351514963</v>
+        <v>-0.7140092074367198</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.919354703792952</v>
+        <v>4.219291459620731</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>6.315009711310624</v>
+        <v>6.278983068063688</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>12.29667546167458</v>
+        <v>13.38226479325808</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.62048193687214</v>
+        <v>16.50795793174914</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15.3330089080584</v>
+        <v>15.85618071491338</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.888600319248809</v>
+        <v>9.730833484532646</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.83259508929139</v>
+        <v>14.73811393704372</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>14.38620503454775</v>
+        <v>14.22731835953049</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.732961026120588</v>
+        <v>9.531145777563408</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>13.68689344778275</v>
+        <v>13.77681094151824</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>14.59735146039605</v>
+        <v>14.85196323908328</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.0843577200834411</v>
+        <v>-0.06772148068087311</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.01142272837498103</v>
+        <v>0.002621719230670243</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.02969930189818038</v>
+        <v>0.03796255217031455</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.007254838146809531</v>
+        <v>0.0042898194746296</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4409470591290398</v>
+        <v>0.4613382798162478</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5990235817254513</v>
+        <v>0.5388102446752293</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01953890280029519</v>
+        <v>-0.03208087337140417</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1533175307529549</v>
+        <v>0.1500862950291467</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.2474333261477186</v>
+        <v>0.2401975024648879</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3219937431166487</v>
+        <v>0.3463981429412676</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4514986761508589</v>
+        <v>0.4286718499873872</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.408045064590392</v>
+        <v>0.415223362376796</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.604295724110459</v>
+        <v>1.593354511877004</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.395719622816026</v>
+        <v>2.482243327826134</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.436794178893364</v>
+        <v>2.353506293192565</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4496769892995066</v>
+        <v>0.4276448893662387</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6373999538917055</v>
+        <v>0.6287841159550926</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6989137282566581</v>
+        <v>0.7086792399787231</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.954340730541565</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.875751739987302</v>
+        <v>1.875751739987297</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.5034563073207959</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.822446486424742</v>
+        <v>-9.872846650617864</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.594923229039036</v>
+        <v>-5.703645282483552</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.183310391585937</v>
+        <v>-5.560961421155178</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-3.143081755540124</v>
+        <v>-3.121734470473451</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7710113048993138</v>
+        <v>-0.6503579551009213</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.9740140980488751</v>
+        <v>-1.409315117644896</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.288127799671256</v>
+        <v>-4.634154286955528</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.69594602452417</v>
+        <v>-1.487583507195956</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.22664071448957</v>
+        <v>-1.308640079481598</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.292711168031715</v>
+        <v>8.519458934491405</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.45145652327979</v>
+        <v>9.80963023653422</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.875632038306298</v>
+        <v>9.247859868839269</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.587607405672895</v>
+        <v>3.752659096110712</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.055143288168949</v>
+        <v>7.238975844321495</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.119426898004215</v>
+        <v>5.106980352306214</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.41472576513244</v>
+        <v>4.090449066014477</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.935928012993451</v>
+        <v>7.298465618738491</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.346655253491629</v>
+        <v>6.765206052840561</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.05848977596033275</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.05613775393130113</v>
+        <v>0.05613775393130096</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1087923522734803</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2552338892069184</v>
+        <v>-0.26754046177406</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1751266358631584</v>
+        <v>-0.1562575152222938</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1582174459370933</v>
+        <v>-0.145204983985381</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4875004082683162</v>
+        <v>-0.491612407089881</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1642335930938862</v>
+        <v>-0.1568908839402882</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1401411005007289</v>
+        <v>-0.2088500803425199</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2406761050855035</v>
+        <v>-0.2523167526023875</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.09185463186635133</v>
+        <v>-0.0833901049291772</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.07089909225665654</v>
+        <v>-0.0747472684266822</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3289804757590741</v>
+        <v>0.3073688215441389</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3529930503534129</v>
+        <v>0.3437121218224141</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3498675976356308</v>
+        <v>0.3229798330510137</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.309877137368615</v>
+        <v>1.391105081118094</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.392085614294253</v>
+        <v>2.583509062216145</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.904592326154144</v>
+        <v>1.781990578341661</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3277877936182181</v>
+        <v>0.3172567306897081</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5150369461833628</v>
+        <v>0.5579258639842942</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4762194002443239</v>
+        <v>0.5173217038500895</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>2.181697820725037</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-7.212276983101196</v>
+        <v>-7.212276983101207</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.152863156805375</v>
@@ -2162,7 +2162,7 @@
         <v>4.102693030589244</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-3.713390896373342</v>
+        <v>-3.713390896373336</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.635939550837851</v>
+        <v>-1.318963248432894</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.2656759675500467</v>
+        <v>-0.4475348782821791</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-9.823712161236656</v>
+        <v>-9.547804162953275</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.260696664111792</v>
+        <v>-0.9279887450033883</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>3.882176850751506</v>
+        <v>3.747537716090641</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.261189883604874</v>
+        <v>-1.94961598586505</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.5998952537085891</v>
+        <v>-0.6012386508094126</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.259000483613042</v>
+        <v>2.335161614382543</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.412959123437975</v>
+        <v>-5.41014774880284</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.538653051190355</v>
+        <v>3.639865887702957</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.740221218764538</v>
+        <v>4.608315538128347</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-4.621944554549917</v>
+        <v>-4.765159352604782</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.224727851854815</v>
+        <v>3.322503323733832</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.361956173368126</v>
+        <v>8.345723685090272</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.742957130661353</v>
+        <v>1.692026684837511</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.801222258695829</v>
+        <v>2.671513015318471</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.686472576833699</v>
+        <v>5.765288407834209</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.075853540650339</v>
+        <v>-2.029175116713983</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.03970826081375897</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1312679385685405</v>
+        <v>-0.1312679385685407</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.04702211539720091</v>
@@ -2267,7 +2267,7 @@
         <v>0.1040349649615507</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.09416314818397636</v>
+        <v>-0.09416314818397623</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.02865585968675241</v>
+        <v>-0.02344427242641367</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.004090615217815327</v>
+        <v>-0.007964718710103902</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1747986943437874</v>
+        <v>-0.170353072008405</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04801771314206593</v>
+        <v>-0.03651780571483013</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1552429268281635</v>
+        <v>0.1500323635506371</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.08779997097245151</v>
+        <v>-0.07709848085487012</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.01511850060515179</v>
+        <v>-0.01487447745023573</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.05549956954241884</v>
+        <v>0.05894914033410763</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1339627208016926</v>
+        <v>-0.1344275550855366</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.06610239954417244</v>
+        <v>0.06756457981955823</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.08890683483488981</v>
+        <v>0.08603484144490868</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.08703717374181121</v>
+        <v>-0.08790429114205421</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1386244305947751</v>
+        <v>0.1419462274288507</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3584731600243353</v>
+        <v>0.3587279046897107</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.07348515906489259</v>
+        <v>0.0716322798962274</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0729493799466598</v>
+        <v>0.06933252158550607</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1465657645824953</v>
+        <v>0.1500003987258487</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.05361401984483437</v>
+        <v>-0.05243722054222952</v>
       </c>
     </row>
     <row r="52">
